--- a/1_Clean_Data/Qian_2019_QJEP/CodeBook_Qian_2019_QJEP_Exp1_Clean.xlsx
+++ b/1_Clean_Data/Qian_2019_QJEP/CodeBook_Qian_2019_QJEP_Exp1_Clean.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -53,6 +53,24 @@
     <t>Numeric</t>
   </si>
   <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Participant's gender</t>
+  </si>
+  <si>
+    <t>male;female</t>
+  </si>
+  <si>
+    <t>Categorical</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Participant's age</t>
+  </si>
+  <si>
     <t>Matching</t>
   </si>
   <si>
@@ -62,16 +80,37 @@
     <t>Matching;Nomatching</t>
   </si>
   <si>
-    <t>Categorical</t>
-  </si>
-  <si>
     <t>Identity</t>
   </si>
   <si>
     <t>Identity label</t>
   </si>
   <si>
-    <t>Self;Stranger;Celebrity</t>
+    <t>Self;Familiar;Stranger</t>
+  </si>
+  <si>
+    <t>Mood</t>
+  </si>
+  <si>
+    <t>Mood induced during session</t>
+  </si>
+  <si>
+    <t>anxious;depression;happy;serenity</t>
+  </si>
+  <si>
+    <t>Arouse</t>
+  </si>
+  <si>
+    <t>Arousal level rating</t>
+  </si>
+  <si>
+    <t>1;2;3;4;5;6;7;8</t>
+  </si>
+  <si>
+    <t>Valence</t>
+  </si>
+  <si>
+    <t>Valence rating</t>
   </si>
   <si>
     <t>Session</t>
@@ -80,7 +119,7 @@
     <t>Session number</t>
   </si>
   <si>
-    <t>1;2;3;4</t>
+    <t>S1;S2;S3;S4</t>
   </si>
   <si>
     <t>RT_ms</t>
@@ -101,25 +140,7 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Mood</t>
-  </si>
-  <si>
-    <t>Mood induced during session</t>
-  </si>
-  <si>
-    <t>Arouse</t>
-  </si>
-  <si>
-    <t>Arousal level rating</t>
-  </si>
-  <si>
-    <t>1;2;3;4;5;6;7;8</t>
-  </si>
-  <si>
-    <t>Valence</t>
-  </si>
-  <si>
-    <t>Valence rating</t>
+    <t>0;1</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1080,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1123,38 +1144,38 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1165,21 +1186,21 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1187,27 +1208,27 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1215,15 +1236,43 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
         <v>7</v>
       </c>
     </row>
